--- a/描述統計_Diagnosis_yes.xlsx
+++ b/描述統計_Diagnosis_yes.xlsx
@@ -5,24 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\芳珊\202504_Python人工智慧與數據分析\Lung-Cancer-Risk-in-25-Countries_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shan\power-bi_advanced-courses\Lung-Cancer-Risk-in-25-Countries_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C8E5EC-546D-4A9D-82D6-6F99E144C2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420BED97-606B-4BCC-AD09-1E109B52CD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3504" yWindow="2820" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原稿" sheetId="1" r:id="rId1"/>
     <sheet name="描述統計" sheetId="2" r:id="rId2"/>
-    <sheet name="定義" sheetId="3" r:id="rId3"/>
+    <sheet name="年齡_按性別描述統計" sheetId="4" r:id="rId3"/>
+    <sheet name="存活年數_按癌症期別_描述統計" sheetId="5" r:id="rId4"/>
+    <sheet name="定義" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -132,16 +134,78 @@
     <t>四分位數（25%、50%、75%）</t>
   </si>
   <si>
-    <t>肺癌確診者
-8,961</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>死亡率%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>肺癌盛行率%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肺癌確診者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年齡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男/年齡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女/年齡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肺癌確診者
+存活年數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年齡_按性別描述統計</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage 4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>存活年數_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>按</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>癌症期別_描述統計</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -155,7 +219,7 @@
     <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,8 +262,15 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,8 +283,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -236,6 +313,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -243,7 +340,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -293,6 +390,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -603,21 +718,21 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="48.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -647,7 +762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>17</v>
@@ -677,7 +792,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -709,7 +824,7 @@
         <v>8961</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -741,7 +856,7 @@
         <v>75.090262247517018</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -773,7 +888,7 @@
         <v>8.6244821653796055</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -805,7 +920,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -837,7 +952,7 @@
         <v>67.569999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -869,7 +984,7 @@
         <v>75.08</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -901,7 +1016,7 @@
         <v>82.61</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -942,263 +1057,727 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD26BEE-069F-456C-A80C-2C2823F8487A}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="J1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="18">
+        <v>8961</v>
+      </c>
+      <c r="C2" s="18">
+        <v>8961</v>
+      </c>
+      <c r="D2" s="18">
+        <v>5332</v>
+      </c>
+      <c r="E2" s="18">
+        <v>3629</v>
+      </c>
+      <c r="F2" s="18">
+        <v>8961</v>
+      </c>
+      <c r="G2" s="18">
+        <v>8961</v>
+      </c>
+      <c r="H2" s="18">
+        <v>8961</v>
+      </c>
+      <c r="I2" s="18">
+        <v>8961</v>
+      </c>
+      <c r="J2" s="18">
+        <v>8961</v>
+      </c>
+      <c r="K2" s="18">
+        <v>8961</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="11">
+        <v>224.20087043856711</v>
+      </c>
+      <c r="C3" s="11">
+        <v>52.664657962280998</v>
+      </c>
+      <c r="D3" s="19">
+        <v>52.327081770442611</v>
+      </c>
+      <c r="E3" s="19">
+        <v>53.160650316891697</v>
+      </c>
+      <c r="F3" s="11">
+        <v>14.23769668563776</v>
+      </c>
+      <c r="G3" s="11">
+        <v>12.207789309228881</v>
+      </c>
+      <c r="H3" s="11">
+        <v>5.5035152326749248</v>
+      </c>
+      <c r="I3" s="12">
+        <v>62355.573150318043</v>
+      </c>
+      <c r="J3" s="11">
+        <v>1.50542126994755</v>
+      </c>
+      <c r="K3" s="11">
+        <v>75.090262247517018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="14">
+        <v>339.62117196978829</v>
+      </c>
+      <c r="C4" s="14">
+        <v>19.17652750823753</v>
+      </c>
+      <c r="D4" s="20">
+        <v>19.090478373931681</v>
+      </c>
+      <c r="E4" s="20">
+        <v>19.294183824554281</v>
+      </c>
+      <c r="F4" s="14">
+        <v>13.42910329874767</v>
+      </c>
+      <c r="G4" s="14">
+        <v>10.167333766874741</v>
+      </c>
+      <c r="H4" s="14">
+        <v>2.8729833624106882</v>
+      </c>
+      <c r="I4" s="15">
+        <v>126716.026707051</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0.57765584580687601</v>
+      </c>
+      <c r="K4" s="14">
+        <v>8.6244821653796055</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="17">
+        <v>54</v>
+      </c>
+      <c r="C5" s="17">
+        <v>20</v>
+      </c>
+      <c r="D5" s="17">
+        <v>20</v>
+      </c>
+      <c r="E5" s="17">
+        <v>20</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0</v>
+      </c>
+      <c r="H5" s="17">
+        <v>1</v>
+      </c>
+      <c r="I5" s="15">
+        <v>10044</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="17">
+        <v>83</v>
+      </c>
+      <c r="C6" s="17">
         <v>36</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="D6" s="17">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="E6" s="17">
+        <v>36</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
+        <v>3</v>
+      </c>
+      <c r="I6" s="15">
+        <v>23000</v>
+      </c>
+      <c r="J6" s="17">
+        <v>1.01</v>
+      </c>
+      <c r="K6" s="17">
+        <v>67.569999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="17">
+        <v>113</v>
+      </c>
+      <c r="C7" s="17">
+        <v>53</v>
+      </c>
+      <c r="D7" s="17">
+        <v>52</v>
+      </c>
+      <c r="E7" s="17">
+        <v>54</v>
+      </c>
+      <c r="F7" s="21">
+        <v>12</v>
+      </c>
+      <c r="G7" s="21">
+        <v>12</v>
+      </c>
+      <c r="H7" s="17">
+        <v>6</v>
+      </c>
+      <c r="I7" s="15">
+        <v>30000</v>
+      </c>
+      <c r="J7" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="K7" s="17">
+        <v>75.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="17">
+        <v>206</v>
+      </c>
+      <c r="C8" s="17">
+        <v>69</v>
+      </c>
+      <c r="D8" s="17">
+        <v>69</v>
+      </c>
+      <c r="E8" s="17">
+        <v>70</v>
+      </c>
+      <c r="F8" s="17">
+        <v>26</v>
+      </c>
+      <c r="G8" s="17">
+        <v>21</v>
+      </c>
+      <c r="H8" s="17">
+        <v>8</v>
+      </c>
+      <c r="I8" s="15">
+        <v>45000</v>
+      </c>
+      <c r="J8" s="17">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="K8" s="17">
+        <v>82.61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="17">
+        <v>1400</v>
+      </c>
+      <c r="C9" s="17">
+        <v>85</v>
+      </c>
+      <c r="D9" s="17">
+        <v>85</v>
+      </c>
+      <c r="E9" s="17">
+        <v>85</v>
+      </c>
+      <c r="F9" s="17">
+        <v>40</v>
+      </c>
+      <c r="G9" s="17">
+        <v>30</v>
+      </c>
+      <c r="H9" s="17">
         <v>10</v>
       </c>
-      <c r="B2" s="11">
-        <v>224.20087043856711</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="I9" s="15">
+        <v>690000</v>
+      </c>
+      <c r="J9" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="K9" s="17">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A6:A8" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8548A756-9254-48D2-AEDE-36BBE793CB3C}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="18">
+        <v>8961</v>
+      </c>
+      <c r="C3" s="18">
+        <v>5332</v>
+      </c>
+      <c r="D3" s="18">
+        <v>3629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="11">
         <v>52.664657962280998</v>
       </c>
-      <c r="D2" s="11">
-        <v>14.23769668563776</v>
-      </c>
-      <c r="E2" s="11">
-        <v>12.207789309228881</v>
-      </c>
-      <c r="F2" s="11">
-        <v>5.5035152326749248</v>
-      </c>
-      <c r="G2" s="12">
-        <v>62355.573150318043</v>
-      </c>
-      <c r="H2" s="11">
-        <v>1.50542126994755</v>
-      </c>
-      <c r="I2" s="11">
-        <v>75.090262247517018</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="C4" s="19">
+        <v>52.327081770442611</v>
+      </c>
+      <c r="D4" s="19">
+        <v>53.160650316891697</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="14">
-        <v>339.62117196978829</v>
-      </c>
-      <c r="C3" s="14">
+      <c r="B5" s="14">
         <v>19.17652750823753</v>
       </c>
-      <c r="D3" s="14">
-        <v>13.42910329874767</v>
-      </c>
-      <c r="E3" s="14">
-        <v>10.167333766874741</v>
-      </c>
-      <c r="F3" s="14">
-        <v>2.8729833624106882</v>
-      </c>
-      <c r="G3" s="15">
-        <v>126716.026707051</v>
-      </c>
-      <c r="H3" s="14">
-        <v>0.57765584580687601</v>
-      </c>
-      <c r="I3" s="14">
-        <v>8.6244821653796055</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="C5" s="20">
+        <v>19.090478373931681</v>
+      </c>
+      <c r="D5" s="20">
+        <v>19.294183824554281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B6" s="17">
+        <v>20</v>
+      </c>
+      <c r="C6" s="17">
+        <v>20</v>
+      </c>
+      <c r="D6" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="17">
+        <v>36</v>
+      </c>
+      <c r="C7" s="17">
+        <v>35</v>
+      </c>
+      <c r="D7" s="17">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="17">
+        <v>53</v>
+      </c>
+      <c r="C8" s="17">
+        <v>52</v>
+      </c>
+      <c r="D8" s="17">
         <v>54</v>
       </c>
-      <c r="C4" s="17">
-        <v>20</v>
-      </c>
-      <c r="D4" s="17">
-        <v>0</v>
-      </c>
-      <c r="E4" s="17">
-        <v>0</v>
-      </c>
-      <c r="F4" s="17">
-        <v>1</v>
-      </c>
-      <c r="G4" s="15">
-        <v>10044</v>
-      </c>
-      <c r="H4" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I4" s="17">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="17">
-        <v>83</v>
-      </c>
-      <c r="C5" s="17">
-        <v>36</v>
-      </c>
-      <c r="D5" s="17">
-        <v>0</v>
-      </c>
-      <c r="E5" s="17">
-        <v>0</v>
-      </c>
-      <c r="F5" s="17">
-        <v>3</v>
-      </c>
-      <c r="G5" s="15">
-        <v>23000</v>
-      </c>
-      <c r="H5" s="17">
-        <v>1.01</v>
-      </c>
-      <c r="I5" s="17">
-        <v>67.569999999999993</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="17">
-        <v>113</v>
-      </c>
-      <c r="C6" s="17">
-        <v>53</v>
-      </c>
-      <c r="D6" s="17">
-        <v>12</v>
-      </c>
-      <c r="E6" s="17">
-        <v>12</v>
-      </c>
-      <c r="F6" s="17">
-        <v>6</v>
-      </c>
-      <c r="G6" s="15">
-        <v>30000</v>
-      </c>
-      <c r="H6" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="I6" s="17">
-        <v>75.08</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="17">
-        <v>206</v>
-      </c>
-      <c r="C7" s="17">
+      <c r="B9" s="17">
         <v>69</v>
       </c>
-      <c r="D7" s="17">
-        <v>26</v>
-      </c>
-      <c r="E7" s="17">
-        <v>21</v>
-      </c>
-      <c r="F7" s="17">
-        <v>8</v>
-      </c>
-      <c r="G7" s="15">
-        <v>45000</v>
-      </c>
-      <c r="H7" s="17">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="I7" s="17">
-        <v>82.61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="C9" s="17">
+        <v>69</v>
+      </c>
+      <c r="D9" s="17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="17">
-        <v>1400</v>
-      </c>
-      <c r="C8" s="17">
+      <c r="B10" s="17">
         <v>85</v>
       </c>
-      <c r="D8" s="17">
-        <v>40</v>
-      </c>
-      <c r="E8" s="17">
-        <v>30</v>
-      </c>
-      <c r="F8" s="17">
-        <v>10</v>
-      </c>
-      <c r="G8" s="15">
-        <v>690000</v>
-      </c>
-      <c r="H8" s="17">
-        <v>2.5</v>
-      </c>
-      <c r="I8" s="17">
-        <v>90</v>
+      <c r="C10" s="17">
+        <v>85</v>
+      </c>
+      <c r="D10" s="17">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328B4A43-546C-4B38-B7A0-F4ED408D8099}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="6" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="18">
+        <v>8961</v>
+      </c>
+      <c r="C3" s="18">
+        <v>2191</v>
+      </c>
+      <c r="D3" s="18">
+        <v>2198</v>
+      </c>
+      <c r="E3" s="18">
+        <v>2185</v>
+      </c>
+      <c r="F3" s="18">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="11">
+        <v>5.5035152326749248</v>
+      </c>
+      <c r="C4" s="19">
+        <v>5.4217252396166131</v>
+      </c>
+      <c r="D4" s="19">
+        <v>5.5969062784349406</v>
+      </c>
+      <c r="E4" s="19">
+        <v>5.5514874141876431</v>
+      </c>
+      <c r="F4" s="19">
+        <v>5.448680351906158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="14">
+        <v>2.8729833624106882</v>
+      </c>
+      <c r="C5" s="20">
+        <v>2.8670961140519839</v>
+      </c>
+      <c r="D5" s="20">
+        <v>2.8633622554382971</v>
+      </c>
+      <c r="E5" s="20">
+        <v>2.8813898306517101</v>
+      </c>
+      <c r="F5" s="20">
+        <v>2.8779637475828008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="17">
+        <v>1</v>
+      </c>
+      <c r="C6" s="17">
+        <v>1</v>
+      </c>
+      <c r="D6" s="17">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="F6" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="17">
+        <v>3</v>
+      </c>
+      <c r="C7" s="17">
+        <v>3</v>
+      </c>
+      <c r="D7" s="17">
+        <v>3</v>
+      </c>
+      <c r="E7" s="17">
+        <v>3</v>
+      </c>
+      <c r="F7" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="17">
+        <v>6</v>
+      </c>
+      <c r="C8" s="17">
+        <v>5</v>
+      </c>
+      <c r="D8" s="17">
+        <v>6</v>
+      </c>
+      <c r="E8" s="17">
+        <v>6</v>
+      </c>
+      <c r="F8" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="17">
+        <v>8</v>
+      </c>
+      <c r="C9" s="17">
+        <v>8</v>
+      </c>
+      <c r="D9" s="17">
+        <v>8</v>
+      </c>
+      <c r="E9" s="17">
+        <v>8</v>
+      </c>
+      <c r="F9" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="17">
+        <v>10</v>
+      </c>
+      <c r="C10" s="17">
+        <v>10</v>
+      </c>
+      <c r="D10" s="17">
+        <v>10</v>
+      </c>
+      <c r="E10" s="17">
+        <v>10</v>
+      </c>
+      <c r="F10" s="17">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A7:A10" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031B391A-5FBC-455C-9005-0A38F59FC6E1}">
   <dimension ref="A1:A11"/>
   <sheetViews>
@@ -1206,37 +1785,37 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>

--- a/描述統計_Diagnosis_yes.xlsx
+++ b/描述統計_Diagnosis_yes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shan\power-bi_advanced-courses\Lung-Cancer-Risk-in-25-Countries_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420BED97-606B-4BCC-AD09-1E109B52CD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E79E44-2D9D-409E-AD84-98AD049BD358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原稿" sheetId="1" r:id="rId1"/>
@@ -290,7 +290,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -313,26 +313,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -340,7 +320,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -403,10 +383,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1405,8 +1382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8548A756-9254-48D2-AEDE-36BBE793CB3C}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1420,9 +1397,9 @@
       <c r="A1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -1564,8 +1541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328B4A43-546C-4B38-B7A0-F4ED408D8099}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1578,11 +1555,11 @@
       <c r="A1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">

--- a/描述統計_Diagnosis_yes.xlsx
+++ b/描述統計_Diagnosis_yes.xlsx
@@ -5,26 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shan\power-bi_advanced-courses\Lung-Cancer-Risk-in-25-Countries_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\芳珊\202504_Python人工智慧與數據分析\Lung-Cancer-Risk-in-25-Countries_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E79E44-2D9D-409E-AD84-98AD049BD358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D90CAEE-7770-4BCE-B8E6-1A8522AD43D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原稿" sheetId="1" r:id="rId1"/>
-    <sheet name="描述統計" sheetId="2" r:id="rId2"/>
-    <sheet name="年齡_按性別描述統計" sheetId="4" r:id="rId3"/>
-    <sheet name="存活年數_按癌症期別_描述統計" sheetId="5" r:id="rId4"/>
-    <sheet name="定義" sheetId="3" r:id="rId5"/>
+    <sheet name="描述統計 (2)" sheetId="6" r:id="rId2"/>
+    <sheet name="描述統計" sheetId="2" r:id="rId3"/>
+    <sheet name="年齡_按性別描述統計" sheetId="4" r:id="rId4"/>
+    <sheet name="存活年數_按癌症期別_描述統計" sheetId="5" r:id="rId5"/>
+    <sheet name="定義" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -695,21 +696,21 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="48.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="31.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -739,7 +740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>17</v>
@@ -769,7 +770,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -801,7 +802,7 @@
         <v>8961</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -833,7 +834,7 @@
         <v>75.090262247517018</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -865,7 +866,7 @@
         <v>8.6244821653796055</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -897,7 +898,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -929,7 +930,7 @@
         <v>67.569999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -961,7 +962,7 @@
         <v>75.08</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -993,7 +994,7 @@
         <v>82.61</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1033,62 +1034,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD26BEE-069F-456C-A80C-2C2823F8487A}">
-  <dimension ref="A1:K9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84FD497-8412-4F9E-A61E-92511BFC3FBF}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
@@ -1096,13 +1082,13 @@
         <v>8961</v>
       </c>
       <c r="C2" s="18">
-        <v>8961</v>
+        <v>5332</v>
       </c>
       <c r="D2" s="18">
-        <v>5332</v>
+        <v>3629</v>
       </c>
       <c r="E2" s="18">
-        <v>3629</v>
+        <v>8961</v>
       </c>
       <c r="F2" s="18">
         <v>8961</v>
@@ -1110,95 +1096,59 @@
       <c r="G2" s="18">
         <v>8961</v>
       </c>
-      <c r="H2" s="18">
-        <v>8961</v>
-      </c>
-      <c r="I2" s="18">
-        <v>8961</v>
-      </c>
-      <c r="J2" s="18">
-        <v>8961</v>
-      </c>
-      <c r="K2" s="18">
-        <v>8961</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="11">
-        <v>224.20087043856711</v>
-      </c>
-      <c r="C3" s="11">
         <v>52.664657962280998</v>
       </c>
+      <c r="C3" s="19">
+        <v>52.327081770442611</v>
+      </c>
       <c r="D3" s="19">
-        <v>52.327081770442611</v>
-      </c>
-      <c r="E3" s="19">
         <v>53.160650316891697</v>
       </c>
+      <c r="E3" s="11">
+        <v>14.23769668563776</v>
+      </c>
       <c r="F3" s="11">
-        <v>14.23769668563776</v>
+        <v>12.207789309228881</v>
       </c>
       <c r="G3" s="11">
-        <v>12.207789309228881</v>
-      </c>
-      <c r="H3" s="11">
         <v>5.5035152326749248</v>
       </c>
-      <c r="I3" s="12">
-        <v>62355.573150318043</v>
-      </c>
-      <c r="J3" s="11">
-        <v>1.50542126994755</v>
-      </c>
-      <c r="K3" s="11">
-        <v>75.090262247517018</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="14">
-        <v>339.62117196978829</v>
-      </c>
-      <c r="C4" s="14">
         <v>19.17652750823753</v>
       </c>
+      <c r="C4" s="20">
+        <v>19.090478373931681</v>
+      </c>
       <c r="D4" s="20">
-        <v>19.090478373931681</v>
-      </c>
-      <c r="E4" s="20">
         <v>19.294183824554281</v>
       </c>
+      <c r="E4" s="14">
+        <v>13.42910329874767</v>
+      </c>
       <c r="F4" s="14">
-        <v>13.42910329874767</v>
+        <v>10.167333766874741</v>
       </c>
       <c r="G4" s="14">
-        <v>10.167333766874741</v>
-      </c>
-      <c r="H4" s="14">
         <v>2.8729833624106882</v>
       </c>
-      <c r="I4" s="15">
-        <v>126716.026707051</v>
-      </c>
-      <c r="J4" s="14">
-        <v>0.57765584580687601</v>
-      </c>
-      <c r="K4" s="14">
-        <v>8.6244821653796055</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="17">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C5" s="17">
         <v>20</v>
@@ -1207,138 +1157,90 @@
         <v>20</v>
       </c>
       <c r="E5" s="17">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F5" s="17">
         <v>0</v>
       </c>
       <c r="G5" s="17">
-        <v>0</v>
-      </c>
-      <c r="H5" s="17">
         <v>1</v>
       </c>
-      <c r="I5" s="15">
-        <v>10044</v>
-      </c>
-      <c r="J5" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="K5" s="17">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="17">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="C6" s="17">
+        <v>35</v>
+      </c>
+      <c r="D6" s="17">
         <v>36</v>
       </c>
-      <c r="D6" s="17">
-        <v>35</v>
-      </c>
       <c r="E6" s="17">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F6" s="17">
         <v>0</v>
       </c>
       <c r="G6" s="17">
-        <v>0</v>
-      </c>
-      <c r="H6" s="17">
         <v>3</v>
       </c>
-      <c r="I6" s="15">
-        <v>23000</v>
-      </c>
-      <c r="J6" s="17">
-        <v>1.01</v>
-      </c>
-      <c r="K6" s="17">
-        <v>67.569999999999993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="17">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="C7" s="17">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="17">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E7" s="17">
-        <v>54</v>
-      </c>
-      <c r="F7" s="21">
         <v>12</v>
       </c>
-      <c r="G7" s="21">
+      <c r="F7" s="17">
         <v>12</v>
       </c>
-      <c r="H7" s="17">
+      <c r="G7" s="17">
         <v>6</v>
       </c>
-      <c r="I7" s="15">
-        <v>30000</v>
-      </c>
-      <c r="J7" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="K7" s="17">
-        <v>75.08</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="17">
-        <v>206</v>
+        <v>69</v>
       </c>
       <c r="C8" s="17">
         <v>69</v>
       </c>
       <c r="D8" s="17">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E8" s="17">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="F8" s="17">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G8" s="17">
-        <v>21</v>
-      </c>
-      <c r="H8" s="17">
         <v>8</v>
       </c>
-      <c r="I8" s="15">
-        <v>45000</v>
-      </c>
-      <c r="J8" s="17">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="K8" s="17">
-        <v>82.61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="17">
-        <v>1400</v>
+        <v>85</v>
       </c>
       <c r="C9" s="17">
         <v>85</v>
@@ -1347,25 +1249,13 @@
         <v>85</v>
       </c>
       <c r="E9" s="17">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="F9" s="17">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G9" s="17">
-        <v>30</v>
-      </c>
-      <c r="H9" s="17">
         <v>10</v>
-      </c>
-      <c r="I9" s="15">
-        <v>690000</v>
-      </c>
-      <c r="J9" s="17">
-        <v>2.5</v>
-      </c>
-      <c r="K9" s="17">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1379,21 +1269,367 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD26BEE-069F-456C-A80C-2C2823F8487A}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="18">
+        <v>8961</v>
+      </c>
+      <c r="C2" s="18">
+        <v>8961</v>
+      </c>
+      <c r="D2" s="18">
+        <v>5332</v>
+      </c>
+      <c r="E2" s="18">
+        <v>3629</v>
+      </c>
+      <c r="F2" s="18">
+        <v>8961</v>
+      </c>
+      <c r="G2" s="18">
+        <v>8961</v>
+      </c>
+      <c r="H2" s="18">
+        <v>8961</v>
+      </c>
+      <c r="I2" s="18">
+        <v>8961</v>
+      </c>
+      <c r="J2" s="18">
+        <v>8961</v>
+      </c>
+      <c r="K2" s="18">
+        <v>8961</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="11">
+        <v>224.20087043856711</v>
+      </c>
+      <c r="C3" s="11">
+        <v>52.664657962280998</v>
+      </c>
+      <c r="D3" s="19">
+        <v>52.327081770442611</v>
+      </c>
+      <c r="E3" s="19">
+        <v>53.160650316891697</v>
+      </c>
+      <c r="F3" s="11">
+        <v>14.23769668563776</v>
+      </c>
+      <c r="G3" s="11">
+        <v>12.207789309228881</v>
+      </c>
+      <c r="H3" s="11">
+        <v>5.5035152326749248</v>
+      </c>
+      <c r="I3" s="12">
+        <v>62355.573150318043</v>
+      </c>
+      <c r="J3" s="11">
+        <v>1.50542126994755</v>
+      </c>
+      <c r="K3" s="11">
+        <v>75.090262247517018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="14">
+        <v>339.62117196978829</v>
+      </c>
+      <c r="C4" s="14">
+        <v>19.17652750823753</v>
+      </c>
+      <c r="D4" s="20">
+        <v>19.090478373931681</v>
+      </c>
+      <c r="E4" s="20">
+        <v>19.294183824554281</v>
+      </c>
+      <c r="F4" s="14">
+        <v>13.42910329874767</v>
+      </c>
+      <c r="G4" s="14">
+        <v>10.167333766874741</v>
+      </c>
+      <c r="H4" s="14">
+        <v>2.8729833624106882</v>
+      </c>
+      <c r="I4" s="15">
+        <v>126716.026707051</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0.57765584580687601</v>
+      </c>
+      <c r="K4" s="14">
+        <v>8.6244821653796055</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="17">
+        <v>54</v>
+      </c>
+      <c r="C5" s="17">
+        <v>20</v>
+      </c>
+      <c r="D5" s="17">
+        <v>20</v>
+      </c>
+      <c r="E5" s="17">
+        <v>20</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0</v>
+      </c>
+      <c r="H5" s="17">
+        <v>1</v>
+      </c>
+      <c r="I5" s="15">
+        <v>10044</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="17">
+        <v>83</v>
+      </c>
+      <c r="C6" s="17">
+        <v>36</v>
+      </c>
+      <c r="D6" s="17">
+        <v>35</v>
+      </c>
+      <c r="E6" s="17">
+        <v>36</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
+        <v>3</v>
+      </c>
+      <c r="I6" s="15">
+        <v>23000</v>
+      </c>
+      <c r="J6" s="17">
+        <v>1.01</v>
+      </c>
+      <c r="K6" s="17">
+        <v>67.569999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="17">
+        <v>113</v>
+      </c>
+      <c r="C7" s="17">
+        <v>53</v>
+      </c>
+      <c r="D7" s="17">
+        <v>52</v>
+      </c>
+      <c r="E7" s="17">
+        <v>54</v>
+      </c>
+      <c r="F7" s="21">
+        <v>12</v>
+      </c>
+      <c r="G7" s="21">
+        <v>12</v>
+      </c>
+      <c r="H7" s="17">
+        <v>6</v>
+      </c>
+      <c r="I7" s="15">
+        <v>30000</v>
+      </c>
+      <c r="J7" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="K7" s="17">
+        <v>75.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="17">
+        <v>206</v>
+      </c>
+      <c r="C8" s="17">
+        <v>69</v>
+      </c>
+      <c r="D8" s="17">
+        <v>69</v>
+      </c>
+      <c r="E8" s="17">
+        <v>70</v>
+      </c>
+      <c r="F8" s="17">
+        <v>26</v>
+      </c>
+      <c r="G8" s="17">
+        <v>21</v>
+      </c>
+      <c r="H8" s="17">
+        <v>8</v>
+      </c>
+      <c r="I8" s="15">
+        <v>45000</v>
+      </c>
+      <c r="J8" s="17">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="K8" s="17">
+        <v>82.61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="17">
+        <v>1400</v>
+      </c>
+      <c r="C9" s="17">
+        <v>85</v>
+      </c>
+      <c r="D9" s="17">
+        <v>85</v>
+      </c>
+      <c r="E9" s="17">
+        <v>85</v>
+      </c>
+      <c r="F9" s="17">
+        <v>40</v>
+      </c>
+      <c r="G9" s="17">
+        <v>30</v>
+      </c>
+      <c r="H9" s="17">
+        <v>10</v>
+      </c>
+      <c r="I9" s="15">
+        <v>690000</v>
+      </c>
+      <c r="J9" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="K9" s="17">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A6:A8" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8548A756-9254-48D2-AEDE-36BBE793CB3C}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>41</v>
       </c>
@@ -1401,7 +1637,7 @@
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
     </row>
-    <row r="2" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
@@ -1415,7 +1651,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
@@ -1429,7 +1665,7 @@
         <v>3629</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
@@ -1443,7 +1679,7 @@
         <v>53.160650316891697</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
@@ -1457,7 +1693,7 @@
         <v>19.294183824554281</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>12</v>
       </c>
@@ -1471,7 +1707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>13</v>
       </c>
@@ -1485,7 +1721,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>14</v>
       </c>
@@ -1499,7 +1735,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
@@ -1513,7 +1749,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>16</v>
       </c>
@@ -1537,7 +1773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328B4A43-546C-4B38-B7A0-F4ED408D8099}">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -1545,13 +1781,13 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="6" width="17.140625" customWidth="1"/>
+    <col min="2" max="6" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>46</v>
       </c>
@@ -1561,7 +1797,7 @@
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
     </row>
-    <row r="2" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>40</v>
       </c>
@@ -1581,7 +1817,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
@@ -1601,7 +1837,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
@@ -1621,7 +1857,7 @@
         <v>5.448680351906158</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
@@ -1641,7 +1877,7 @@
         <v>2.8779637475828008</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>12</v>
       </c>
@@ -1661,7 +1897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>13</v>
       </c>
@@ -1681,7 +1917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>14</v>
       </c>
@@ -1701,7 +1937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
@@ -1721,7 +1957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>16</v>
       </c>
@@ -1754,7 +1990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031B391A-5FBC-455C-9005-0A38F59FC6E1}">
   <dimension ref="A1:A11"/>
   <sheetViews>
@@ -1762,37 +1998,37 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>33</v>
       </c>
